--- a/analysis/ExData/Motion/CutData/Analysis_Result.xlsx
+++ b/analysis/ExData/Motion/CutData/Analysis_Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="24">
   <si>
     <t>Participant</t>
   </si>
@@ -34,7 +34,31 @@
     <t>Ebina</t>
   </si>
   <si>
+    <t>Hijikata</t>
+  </si>
+  <si>
+    <t>Kato</t>
+  </si>
+  <si>
+    <t>Kawai</t>
+  </si>
+  <si>
+    <t>Kitamichi</t>
+  </si>
+  <si>
     <t>Kusaka</t>
+  </si>
+  <si>
+    <t>Nakamura</t>
+  </si>
+  <si>
+    <t>Sakurai</t>
+  </si>
+  <si>
+    <t>Tsuruoka</t>
+  </si>
+  <si>
+    <t>Yamashita</t>
   </si>
   <si>
     <t>A</t>
@@ -419,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,13 +474,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>4386.102279851778</v>
@@ -470,13 +494,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>892075.5122994739</v>
@@ -490,13 +514,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>0.3161077599987033</v>
@@ -510,13 +534,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>2667.847141089072</v>
@@ -530,13 +554,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>407938.2586845758</v>
@@ -550,13 +574,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>0.4260918899992241</v>
@@ -570,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F8">
         <v>1741.212403102935</v>
@@ -590,13 +614,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>160149.4939821484</v>
@@ -610,13 +634,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F10">
         <v>0.2726066600007474</v>
@@ -630,13 +654,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>2496.80242003492</v>
@@ -650,13 +674,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F12">
         <v>469776.4878491152</v>
@@ -670,13 +694,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <v>0.3562998999987014</v>
@@ -690,13 +714,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F14">
         <v>2414.241969556955</v>
@@ -710,13 +734,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F15">
         <v>227458.7215510066</v>
@@ -730,13 +754,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F16">
         <v>0.3447864199988551</v>
@@ -750,13 +774,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F17">
         <v>1962.711649191705</v>
@@ -770,13 +794,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F18">
         <v>152725.5359717321</v>
@@ -790,13 +814,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F19">
         <v>0.25920885000378</v>
@@ -810,13 +834,13 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F20">
         <v>2991.380056390132</v>
@@ -830,13 +854,13 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F21">
         <v>508834.6819710708</v>
@@ -850,13 +874,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F22">
         <v>0.3341801999980831</v>
@@ -870,13 +894,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F23">
         <v>2530.302264255561</v>
@@ -890,13 +914,13 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F24">
         <v>241828.3709281015</v>
@@ -910,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F25">
         <v>0.3065481500001626</v>
@@ -930,13 +954,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F26">
         <v>2550.074535335631</v>
@@ -950,13 +974,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F27">
         <v>173784.0930943569</v>
@@ -970,13 +994,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F28">
         <v>0.2137093300014396</v>
@@ -990,16 +1014,16 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F29">
-        <v>3048.367898686119</v>
+        <v>5707.930989252023</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1010,16 +1034,16 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F30">
-        <v>67715.82165972255</v>
+        <v>228921.2104070688</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1030,16 +1054,16 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F31">
-        <v>0.124168190003547</v>
+        <v>0.2610236200096562</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1050,16 +1074,16 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F32">
-        <v>2070.584335548011</v>
+        <v>3628.541428968213</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1070,16 +1094,16 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F33">
-        <v>24977.52580749598</v>
+        <v>64550.93005446291</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1090,16 +1114,16 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F34">
-        <v>0.1527010599999995</v>
+        <v>0.2151237099897109</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1110,16 +1134,16 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F35">
-        <v>2012.638837965731</v>
+        <v>3724.42195059844</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1130,16 +1154,16 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F36">
-        <v>19442.65829195631</v>
+        <v>63663.21610237319</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1150,16 +1174,16 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F37">
-        <v>0.1285740300008911</v>
+        <v>0.2960543900029723</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1170,16 +1194,16 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F38">
-        <v>2240.543178345322</v>
+        <v>5336.702513842013</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1190,16 +1214,16 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F39">
-        <v>168821.5076736728</v>
+        <v>262082.0635321119</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1210,16 +1234,16 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F40">
-        <v>0.1949645100030459</v>
+        <v>0.1806242200022094</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1230,16 +1254,16 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F41">
-        <v>2203.76279424119</v>
+        <v>4578.580559352486</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1250,16 +1274,16 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F42">
-        <v>21725.22882682957</v>
+        <v>199710.7738655909</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1270,16 +1294,16 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F43">
-        <v>0.07919269999692879</v>
+        <v>0.2966086200030986</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1290,16 +1314,16 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F44">
-        <v>2488.713635369734</v>
+        <v>3418.419475190568</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1310,16 +1334,16 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F45">
-        <v>32563.1983685221</v>
+        <v>62627.40774528565</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1330,16 +1354,16 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F46">
-        <v>0.1455765999999118</v>
+        <v>0.2952823299914599</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1350,16 +1374,16 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F47">
-        <v>2486.560109729232</v>
+        <v>5298.500202570776</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1370,16 +1394,16 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F48">
-        <v>37873.59600839169</v>
+        <v>302770.3786162561</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1390,16 +1414,16 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F49">
-        <v>0.09278833999997005</v>
+        <v>0.2340372699894918</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1410,16 +1434,16 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F50">
-        <v>2485.17357564217</v>
+        <v>4924.978906487325</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1430,16 +1454,16 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F51">
-        <v>20996.19150896793</v>
+        <v>177812.258622962</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1450,16 +1474,16 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F52">
-        <v>0.1344250399983153</v>
+        <v>0.2826416299969424</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1470,16 +1494,16 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F53">
-        <v>2332.619780741906</v>
+        <v>3947.386091262003</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1490,16 +1514,16 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F54">
-        <v>28349.87954563922</v>
+        <v>46044.40210999837</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1510,16 +1534,4336 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55">
+        <v>0.2278798400133377</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56">
+        <v>2885.15129511004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57">
+        <v>44262.52215408428</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58">
+        <v>0.1830524900011373</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59">
+        <v>2136.931814096374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60">
+        <v>40352.19233021773</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61">
+        <v>0.2396522700015348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62">
+        <v>3434.751708422287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63">
+        <v>31991.94306737736</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64">
+        <v>0.2063564000010942</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65">
+        <v>3835.001845676667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66">
+        <v>79326.71026945658</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67">
+        <v>0.1418965899996699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68">
+        <v>1931.664676935465</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69">
+        <v>42214.42383674581</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70">
+        <v>0.2274361200004941</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71">
+        <v>2057.696280009692</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72">
+        <v>17748.60443375892</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73">
+        <v>0.2068083600039255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74">
+        <v>3260.219524349929</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75">
+        <v>51174.25461154643</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76">
+        <v>0.2220681300008439</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77">
+        <v>2551.936961435597</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78">
+        <v>25093.58800208448</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79">
+        <v>0.2223730200013945</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80">
+        <v>2691.594506473005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81">
+        <v>24395.55933585892</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82">
+        <v>0.1555593400014922</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83">
+        <v>3092.888556346192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84">
+        <v>141682.345003865</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85">
+        <v>0.1601272300235003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86">
+        <v>4289.917949337228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87">
+        <v>128441.7827318942</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88">
+        <v>0.1234475100063719</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89">
+        <v>3862.023781292432</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90">
+        <v>39240.83444066251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91">
+        <v>0.1723231800366188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92">
+        <v>4015.876739301708</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93">
+        <v>157739.4253201581</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94">
+        <v>0.1684166899998672</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95">
+        <v>3264.184558459484</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96">
+        <v>39297.02226600517</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97">
+        <v>0.1542277599684876</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98">
+        <v>3830.705585589755</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99">
+        <v>31787.68873462457</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100">
+        <v>0.1255939199822006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101">
+        <v>4059.396810870379</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102">
+        <v>96588.52595299337</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103">
+        <v>0.110651580011471</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104">
+        <v>3960.501287106603</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105">
+        <v>89664.08044736665</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106">
+        <v>0.1522792699979606</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107">
+        <v>3888.228160694322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108">
+        <v>63254.34228835941</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109">
+        <v>0.1202966600190836</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
         <v>9</v>
       </c>
-      <c r="D55" t="s">
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110">
+        <v>3454.511007999701</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111">
+        <v>310168.0373011171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112">
+        <v>0.3149763399982476</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113">
+        <v>4013.207308495633</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" t="s">
+        <v>22</v>
+      </c>
+      <c r="F114">
+        <v>54375.96536452333</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115">
+        <v>0.1463970800017696</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116">
+        <v>4813.061771255449</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" t="s">
+        <v>22</v>
+      </c>
+      <c r="F117">
+        <v>69061.44620891512</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118">
+        <v>0.1879469600025914</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119">
+        <v>2781.902656289023</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120" t="s">
+        <v>22</v>
+      </c>
+      <c r="F120">
+        <v>45532.68558472399</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121">
+        <v>0.1129367100002128</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" t="s">
+        <v>21</v>
+      </c>
+      <c r="F122">
+        <v>3992.991359488103</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123">
+        <v>65767.63673726133</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124">
+        <v>0.2243908199961869</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125">
+        <v>4994.376845126922</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126">
+        <v>50091.69514772947</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127">
+        <v>0.2156345499999585</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128">
+        <v>4363.84865350463</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129">
+        <v>140528.1358721299</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" t="s">
+        <v>23</v>
+      </c>
+      <c r="F130">
+        <v>0.2017820099979868</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131">
+        <v>2866.116868844722</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" t="s">
+        <v>22</v>
+      </c>
+      <c r="F132">
+        <v>39871.92425641622</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133">
+        <v>0.1137223900019315</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" t="s">
+        <v>21</v>
+      </c>
+      <c r="F134">
+        <v>5273.404868277713</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135" t="s">
+        <v>22</v>
+      </c>
+      <c r="F135">
+        <v>110496.3553643308</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136" t="s">
+        <v>23</v>
+      </c>
+      <c r="F136">
+        <v>0.1194842399985653</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137">
+        <v>3025.453747082063</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138">
+        <v>70733.11218254404</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" t="s">
+        <v>23</v>
+      </c>
+      <c r="F139">
+        <v>0.124168190003547</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" t="s">
+        <v>21</v>
+      </c>
+      <c r="F140">
+        <v>2055.628696240636</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" t="s">
+        <v>22</v>
+      </c>
+      <c r="F141">
+        <v>25925.02011466686</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142">
+        <v>0.1527010599999995</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>20</v>
+      </c>
+      <c r="E143" t="s">
+        <v>21</v>
+      </c>
+      <c r="F143">
+        <v>1991.547345281526</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144">
+        <v>20955.15995351889</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145" t="s">
+        <v>23</v>
+      </c>
+      <c r="F145">
+        <v>0.1285740300008911</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146" t="s">
+        <v>21</v>
+      </c>
+      <c r="F146">
+        <v>2245.719339675995</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147" t="s">
+        <v>22</v>
+      </c>
+      <c r="F147">
+        <v>170828.6490521629</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148" t="s">
+        <v>23</v>
+      </c>
+      <c r="F148">
+        <v>0.1949645100030459</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149" t="s">
+        <v>21</v>
+      </c>
+      <c r="F149">
+        <v>2203.76279424119</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" t="s">
+        <v>22</v>
+      </c>
+      <c r="F150">
+        <v>21725.22882682957</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151" t="s">
+        <v>23</v>
+      </c>
+      <c r="F151">
+        <v>0.07919269999692879</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152" t="s">
+        <v>21</v>
+      </c>
+      <c r="F152">
+        <v>2483.380207254987</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>20</v>
+      </c>
+      <c r="E153" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153">
+        <v>33657.8318988435</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" t="s">
+        <v>23</v>
+      </c>
+      <c r="F154">
+        <v>0.1455765999999118</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" t="s">
+        <v>21</v>
+      </c>
+      <c r="F155">
+        <v>2473.968765818563</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" t="s">
+        <v>22</v>
+      </c>
+      <c r="F156">
+        <v>39238.46168138218</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157">
+        <v>0.09278833999997005</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" t="s">
+        <v>21</v>
+      </c>
+      <c r="F158">
+        <v>2473.117734586922</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159" t="s">
+        <v>22</v>
+      </c>
+      <c r="F159">
+        <v>21796.3820918327</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160" t="s">
+        <v>23</v>
+      </c>
+      <c r="F160">
+        <v>0.1344250399983153</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161" t="s">
+        <v>21</v>
+      </c>
+      <c r="F161">
+        <v>2323.650715081832</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162" t="s">
+        <v>22</v>
+      </c>
+      <c r="F162">
+        <v>29867.39687402027</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163" t="s">
+        <v>23</v>
+      </c>
+      <c r="F163">
+        <v>0.09929455000092383</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164" t="s">
+        <v>21</v>
+      </c>
+      <c r="F164">
+        <v>5503.303971967904</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165" t="s">
+        <v>22</v>
+      </c>
+      <c r="F165">
+        <v>328144.1526077302</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166">
+        <v>0.242682849999982</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167" t="s">
+        <v>21</v>
+      </c>
+      <c r="F167">
+        <v>5445.953694776304</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" t="s">
+        <v>19</v>
+      </c>
+      <c r="E168" t="s">
+        <v>22</v>
+      </c>
+      <c r="F168">
+        <v>327448.636088123</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" t="s">
+        <v>19</v>
+      </c>
+      <c r="E169" t="s">
+        <v>23</v>
+      </c>
+      <c r="F169">
+        <v>0.1777034599988841</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170" t="s">
+        <v>21</v>
+      </c>
+      <c r="F170">
+        <v>4877.21581930494</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171" t="s">
+        <v>22</v>
+      </c>
+      <c r="F171">
+        <v>174519.4800010282</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172" t="s">
+        <v>23</v>
+      </c>
+      <c r="F172">
+        <v>0.2411628000016211</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" t="s">
+        <v>18</v>
+      </c>
+      <c r="E173" t="s">
+        <v>21</v>
+      </c>
+      <c r="F173">
+        <v>6559.918523435377</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174" t="s">
+        <v>22</v>
+      </c>
+      <c r="F174">
+        <v>1141033.256302988</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175" t="s">
+        <v>23</v>
+      </c>
+      <c r="F175">
+        <v>0.2434065300010841</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176" t="s">
+        <v>21</v>
+      </c>
+      <c r="F176">
+        <v>6896.989603562835</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177" t="s">
+        <v>22</v>
+      </c>
+      <c r="F177">
+        <v>715706.031229</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" t="s">
+        <v>19</v>
+      </c>
+      <c r="E178" t="s">
+        <v>23</v>
+      </c>
+      <c r="F178">
+        <v>0.191116190000321</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" t="s">
+        <v>20</v>
+      </c>
+      <c r="E179" t="s">
+        <v>21</v>
+      </c>
+      <c r="F179">
+        <v>4813.639372891002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E180" t="s">
+        <v>22</v>
+      </c>
+      <c r="F180">
+        <v>311110.6431102981</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181" t="s">
+        <v>23</v>
+      </c>
+      <c r="F181">
+        <v>0.1555916199999055</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" t="s">
+        <v>18</v>
+      </c>
+      <c r="E182" t="s">
+        <v>21</v>
+      </c>
+      <c r="F182">
+        <v>4749.713403086656</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>18</v>
+      </c>
+      <c r="E183" t="s">
+        <v>22</v>
+      </c>
+      <c r="F183">
+        <v>307981.082151581</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" t="s">
+        <v>18</v>
+      </c>
+      <c r="E184" t="s">
+        <v>23</v>
+      </c>
+      <c r="F184">
+        <v>0.257163360003325</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>19</v>
+      </c>
+      <c r="E185" t="s">
+        <v>21</v>
+      </c>
+      <c r="F185">
+        <v>5127.767778839561</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186" t="s">
+        <v>22</v>
+      </c>
+      <c r="F186">
+        <v>217252.6578318592</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" t="s">
+        <v>19</v>
+      </c>
+      <c r="E187" t="s">
+        <v>23</v>
+      </c>
+      <c r="F187">
+        <v>0.127733019996958</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" t="s">
+        <v>20</v>
+      </c>
+      <c r="E188" t="s">
+        <v>21</v>
+      </c>
+      <c r="F188">
+        <v>5728.767464148775</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>20</v>
+      </c>
+      <c r="E189" t="s">
+        <v>22</v>
+      </c>
+      <c r="F189">
+        <v>279309.0073715182</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" t="s">
+        <v>20</v>
+      </c>
+      <c r="E190" t="s">
+        <v>23</v>
+      </c>
+      <c r="F190">
+        <v>0.1559458100033238</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
         <v>12</v>
       </c>
-      <c r="E55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55">
-        <v>0.09929455000092383</v>
+      <c r="C191" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" t="s">
+        <v>18</v>
+      </c>
+      <c r="E191" t="s">
+        <v>21</v>
+      </c>
+      <c r="F191">
+        <v>3224.381070304904</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" t="s">
+        <v>18</v>
+      </c>
+      <c r="E192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192">
+        <v>43753.31484836333</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193" t="s">
+        <v>23</v>
+      </c>
+      <c r="F193">
+        <v>0.2721243900014089</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" t="s">
+        <v>19</v>
+      </c>
+      <c r="E194" t="s">
+        <v>21</v>
+      </c>
+      <c r="F194">
+        <v>2385.603246612682</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" t="s">
+        <v>22</v>
+      </c>
+      <c r="F195">
+        <v>29818.40533328043</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" t="s">
+        <v>19</v>
+      </c>
+      <c r="E196" t="s">
+        <v>23</v>
+      </c>
+      <c r="F196">
+        <v>0.1800703999979296</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197" t="s">
+        <v>21</v>
+      </c>
+      <c r="F197">
+        <v>2936.902930828091</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" t="s">
+        <v>20</v>
+      </c>
+      <c r="E198" t="s">
+        <v>22</v>
+      </c>
+      <c r="F198">
+        <v>10651.04356836823</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199" t="s">
+        <v>23</v>
+      </c>
+      <c r="F199">
+        <v>0.1105963400012113</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" t="s">
+        <v>21</v>
+      </c>
+      <c r="F200">
+        <v>4706.466848947203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" t="s">
+        <v>18</v>
+      </c>
+      <c r="E201" t="s">
+        <v>22</v>
+      </c>
+      <c r="F201">
+        <v>82171.89109891799</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" t="s">
+        <v>18</v>
+      </c>
+      <c r="E202" t="s">
+        <v>23</v>
+      </c>
+      <c r="F202">
+        <v>0.1921763599981205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" t="s">
+        <v>19</v>
+      </c>
+      <c r="E203" t="s">
+        <v>21</v>
+      </c>
+      <c r="F203">
+        <v>3421.346895134498</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204" t="s">
+        <v>22</v>
+      </c>
+      <c r="F204">
+        <v>31822.44888630043</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" t="s">
+        <v>19</v>
+      </c>
+      <c r="E205" t="s">
+        <v>23</v>
+      </c>
+      <c r="F205">
+        <v>0.1316641899989916</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206" t="s">
+        <v>21</v>
+      </c>
+      <c r="F206">
+        <v>2688.688064382416</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" t="s">
+        <v>20</v>
+      </c>
+      <c r="E207" t="s">
+        <v>22</v>
+      </c>
+      <c r="F207">
+        <v>46837.28375433299</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" t="s">
+        <v>20</v>
+      </c>
+      <c r="E208" t="s">
+        <v>23</v>
+      </c>
+      <c r="F208">
+        <v>0.2213714700003029</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" t="s">
+        <v>18</v>
+      </c>
+      <c r="E209" t="s">
+        <v>21</v>
+      </c>
+      <c r="F209">
+        <v>3865.942329773632</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" t="s">
+        <v>22</v>
+      </c>
+      <c r="F210">
+        <v>102927.1624143983</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" t="s">
+        <v>23</v>
+      </c>
+      <c r="F211">
+        <v>0.4188825299992443</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" t="s">
+        <v>19</v>
+      </c>
+      <c r="E212" t="s">
+        <v>21</v>
+      </c>
+      <c r="F212">
+        <v>2444.561675720647</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213" t="s">
+        <v>22</v>
+      </c>
+      <c r="F213">
+        <v>20770.71596809168</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" t="s">
+        <v>17</v>
+      </c>
+      <c r="D214" t="s">
+        <v>19</v>
+      </c>
+      <c r="E214" t="s">
+        <v>23</v>
+      </c>
+      <c r="F214">
+        <v>0.1484867599996502</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" t="s">
+        <v>17</v>
+      </c>
+      <c r="D215" t="s">
+        <v>20</v>
+      </c>
+      <c r="E215" t="s">
+        <v>21</v>
+      </c>
+      <c r="F215">
+        <v>3004.80049727178</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216" t="s">
+        <v>17</v>
+      </c>
+      <c r="D216" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" t="s">
+        <v>22</v>
+      </c>
+      <c r="F216">
+        <v>21901.58599767564</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217" t="s">
+        <v>17</v>
+      </c>
+      <c r="D217" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217" t="s">
+        <v>23</v>
+      </c>
+      <c r="F217">
+        <v>0.1262803699981307</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218" t="s">
+        <v>15</v>
+      </c>
+      <c r="D218" t="s">
+        <v>18</v>
+      </c>
+      <c r="E218" t="s">
+        <v>21</v>
+      </c>
+      <c r="F218">
+        <v>6073.884583246858</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219" t="s">
+        <v>15</v>
+      </c>
+      <c r="D219" t="s">
+        <v>18</v>
+      </c>
+      <c r="E219" t="s">
+        <v>22</v>
+      </c>
+      <c r="F219">
+        <v>300034.544701608</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>13</v>
+      </c>
+      <c r="C220" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" t="s">
+        <v>18</v>
+      </c>
+      <c r="E220" t="s">
+        <v>23</v>
+      </c>
+      <c r="F220">
+        <v>0.101559020001149</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>13</v>
+      </c>
+      <c r="C221" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" t="s">
+        <v>19</v>
+      </c>
+      <c r="E221" t="s">
+        <v>21</v>
+      </c>
+      <c r="F221">
+        <v>6134.461383786941</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222" t="s">
+        <v>15</v>
+      </c>
+      <c r="D222" t="s">
+        <v>19</v>
+      </c>
+      <c r="E222" t="s">
+        <v>22</v>
+      </c>
+      <c r="F222">
+        <v>77005.09262077861</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" t="s">
+        <v>19</v>
+      </c>
+      <c r="E223" t="s">
+        <v>23</v>
+      </c>
+      <c r="F223">
+        <v>0.1896961799968261</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224" t="s">
+        <v>15</v>
+      </c>
+      <c r="D224" t="s">
+        <v>20</v>
+      </c>
+      <c r="E224" t="s">
+        <v>21</v>
+      </c>
+      <c r="F224">
+        <v>7112.508701667123</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>13</v>
+      </c>
+      <c r="C225" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225" t="s">
+        <v>20</v>
+      </c>
+      <c r="E225" t="s">
+        <v>22</v>
+      </c>
+      <c r="F225">
+        <v>164988.8883445443</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226" t="s">
+        <v>15</v>
+      </c>
+      <c r="D226" t="s">
+        <v>20</v>
+      </c>
+      <c r="E226" t="s">
+        <v>23</v>
+      </c>
+      <c r="F226">
+        <v>0.1925251199980256</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>13</v>
+      </c>
+      <c r="C227" t="s">
+        <v>16</v>
+      </c>
+      <c r="D227" t="s">
+        <v>18</v>
+      </c>
+      <c r="E227" t="s">
+        <v>21</v>
+      </c>
+      <c r="F227">
+        <v>4719.889371832819</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228" t="s">
+        <v>16</v>
+      </c>
+      <c r="D228" t="s">
+        <v>18</v>
+      </c>
+      <c r="E228" t="s">
+        <v>22</v>
+      </c>
+      <c r="F228">
+        <v>318160.4383038366</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229" t="s">
+        <v>16</v>
+      </c>
+      <c r="D229" t="s">
+        <v>18</v>
+      </c>
+      <c r="E229" t="s">
+        <v>23</v>
+      </c>
+      <c r="F229">
+        <v>0.1497805699982568</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230" t="s">
+        <v>16</v>
+      </c>
+      <c r="D230" t="s">
+        <v>19</v>
+      </c>
+      <c r="E230" t="s">
+        <v>21</v>
+      </c>
+      <c r="F230">
+        <v>5682.208823385597</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" t="s">
+        <v>19</v>
+      </c>
+      <c r="E231" t="s">
+        <v>22</v>
+      </c>
+      <c r="F231">
+        <v>70509.13566470506</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>13</v>
+      </c>
+      <c r="C232" t="s">
+        <v>16</v>
+      </c>
+      <c r="D232" t="s">
+        <v>19</v>
+      </c>
+      <c r="E232" t="s">
+        <v>23</v>
+      </c>
+      <c r="F232">
+        <v>0.05091454999783309</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>13</v>
+      </c>
+      <c r="C233" t="s">
+        <v>16</v>
+      </c>
+      <c r="D233" t="s">
+        <v>20</v>
+      </c>
+      <c r="E233" t="s">
+        <v>21</v>
+      </c>
+      <c r="F233">
+        <v>6955.580448728579</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234" t="s">
+        <v>16</v>
+      </c>
+      <c r="D234" t="s">
+        <v>20</v>
+      </c>
+      <c r="E234" t="s">
+        <v>22</v>
+      </c>
+      <c r="F234">
+        <v>92338.06604046891</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235" t="s">
+        <v>16</v>
+      </c>
+      <c r="D235" t="s">
+        <v>20</v>
+      </c>
+      <c r="E235" t="s">
+        <v>23</v>
+      </c>
+      <c r="F235">
+        <v>0.2169741999998225</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>13</v>
+      </c>
+      <c r="C236" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" t="s">
+        <v>18</v>
+      </c>
+      <c r="E236" t="s">
+        <v>21</v>
+      </c>
+      <c r="F236">
+        <v>5275.072461085103</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>13</v>
+      </c>
+      <c r="C237" t="s">
+        <v>17</v>
+      </c>
+      <c r="D237" t="s">
+        <v>18</v>
+      </c>
+      <c r="E237" t="s">
+        <v>22</v>
+      </c>
+      <c r="F237">
+        <v>137007.7689305398</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238" t="s">
+        <v>17</v>
+      </c>
+      <c r="D238" t="s">
+        <v>18</v>
+      </c>
+      <c r="E238" t="s">
+        <v>23</v>
+      </c>
+      <c r="F238">
+        <v>0.1922608800014139</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>13</v>
+      </c>
+      <c r="C239" t="s">
+        <v>17</v>
+      </c>
+      <c r="D239" t="s">
+        <v>19</v>
+      </c>
+      <c r="E239" t="s">
+        <v>21</v>
+      </c>
+      <c r="F239">
+        <v>10083.07916522862</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>13</v>
+      </c>
+      <c r="C240" t="s">
+        <v>17</v>
+      </c>
+      <c r="D240" t="s">
+        <v>19</v>
+      </c>
+      <c r="E240" t="s">
+        <v>22</v>
+      </c>
+      <c r="F240">
+        <v>299360.0799289752</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>13</v>
+      </c>
+      <c r="C241" t="s">
+        <v>17</v>
+      </c>
+      <c r="D241" t="s">
+        <v>19</v>
+      </c>
+      <c r="E241" t="s">
+        <v>23</v>
+      </c>
+      <c r="F241">
+        <v>0.5802649000033853</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>13</v>
+      </c>
+      <c r="C242" t="s">
+        <v>17</v>
+      </c>
+      <c r="D242" t="s">
+        <v>20</v>
+      </c>
+      <c r="E242" t="s">
+        <v>21</v>
+      </c>
+      <c r="F242">
+        <v>6608.844493566478</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>13</v>
+      </c>
+      <c r="C243" t="s">
+        <v>17</v>
+      </c>
+      <c r="D243" t="s">
+        <v>20</v>
+      </c>
+      <c r="E243" t="s">
+        <v>22</v>
+      </c>
+      <c r="F243">
+        <v>82058.87844497379</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244" t="s">
+        <v>17</v>
+      </c>
+      <c r="D244" t="s">
+        <v>20</v>
+      </c>
+      <c r="E244" t="s">
+        <v>23</v>
+      </c>
+      <c r="F244">
+        <v>0.2373055699994438</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>14</v>
+      </c>
+      <c r="C245" t="s">
+        <v>15</v>
+      </c>
+      <c r="D245" t="s">
+        <v>18</v>
+      </c>
+      <c r="E245" t="s">
+        <v>21</v>
+      </c>
+      <c r="F245">
+        <v>2419.086683419597</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" t="s">
+        <v>15</v>
+      </c>
+      <c r="D246" t="s">
+        <v>18</v>
+      </c>
+      <c r="E246" t="s">
+        <v>22</v>
+      </c>
+      <c r="F246">
+        <v>81697.90123928187</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>14</v>
+      </c>
+      <c r="C247" t="s">
+        <v>15</v>
+      </c>
+      <c r="D247" t="s">
+        <v>18</v>
+      </c>
+      <c r="E247" t="s">
+        <v>23</v>
+      </c>
+      <c r="F247">
+        <v>0.1224858300003682</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>14</v>
+      </c>
+      <c r="C248" t="s">
+        <v>15</v>
+      </c>
+      <c r="D248" t="s">
+        <v>19</v>
+      </c>
+      <c r="E248" t="s">
+        <v>21</v>
+      </c>
+      <c r="F248">
+        <v>2569.061417752938</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>14</v>
+      </c>
+      <c r="C249" t="s">
+        <v>15</v>
+      </c>
+      <c r="D249" t="s">
+        <v>19</v>
+      </c>
+      <c r="E249" t="s">
+        <v>22</v>
+      </c>
+      <c r="F249">
+        <v>9243.156377550198</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" t="s">
+        <v>15</v>
+      </c>
+      <c r="D250" t="s">
+        <v>19</v>
+      </c>
+      <c r="E250" t="s">
+        <v>23</v>
+      </c>
+      <c r="F250">
+        <v>0.1735758099996017</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>14</v>
+      </c>
+      <c r="C251" t="s">
+        <v>15</v>
+      </c>
+      <c r="D251" t="s">
+        <v>20</v>
+      </c>
+      <c r="E251" t="s">
+        <v>21</v>
+      </c>
+      <c r="F251">
+        <v>2761.805539760595</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252" t="s">
+        <v>20</v>
+      </c>
+      <c r="E252" t="s">
+        <v>22</v>
+      </c>
+      <c r="F252">
+        <v>12485.29142159339</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" t="s">
+        <v>15</v>
+      </c>
+      <c r="D253" t="s">
+        <v>20</v>
+      </c>
+      <c r="E253" t="s">
+        <v>23</v>
+      </c>
+      <c r="F253">
+        <v>0.1861100100024476</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" t="s">
+        <v>16</v>
+      </c>
+      <c r="D254" t="s">
+        <v>18</v>
+      </c>
+      <c r="E254" t="s">
+        <v>21</v>
+      </c>
+      <c r="F254">
+        <v>2286.010999482609</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>14</v>
+      </c>
+      <c r="C255" t="s">
+        <v>16</v>
+      </c>
+      <c r="D255" t="s">
+        <v>18</v>
+      </c>
+      <c r="E255" t="s">
+        <v>22</v>
+      </c>
+      <c r="F255">
+        <v>69632.12770287838</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>14</v>
+      </c>
+      <c r="C256" t="s">
+        <v>16</v>
+      </c>
+      <c r="D256" t="s">
+        <v>18</v>
+      </c>
+      <c r="E256" t="s">
+        <v>23</v>
+      </c>
+      <c r="F256">
+        <v>0.101378050002676</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257" t="s">
+        <v>16</v>
+      </c>
+      <c r="D257" t="s">
+        <v>19</v>
+      </c>
+      <c r="E257" t="s">
+        <v>21</v>
+      </c>
+      <c r="F257">
+        <v>2206.740360150566</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>14</v>
+      </c>
+      <c r="C258" t="s">
+        <v>16</v>
+      </c>
+      <c r="D258" t="s">
+        <v>19</v>
+      </c>
+      <c r="E258" t="s">
+        <v>22</v>
+      </c>
+      <c r="F258">
+        <v>25422.45527691044</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>14</v>
+      </c>
+      <c r="C259" t="s">
+        <v>16</v>
+      </c>
+      <c r="D259" t="s">
+        <v>19</v>
+      </c>
+      <c r="E259" t="s">
+        <v>23</v>
+      </c>
+      <c r="F259">
+        <v>0.2724351800017743</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>14</v>
+      </c>
+      <c r="C260" t="s">
+        <v>16</v>
+      </c>
+      <c r="D260" t="s">
+        <v>20</v>
+      </c>
+      <c r="E260" t="s">
+        <v>21</v>
+      </c>
+      <c r="F260">
+        <v>2742.547415043017</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>14</v>
+      </c>
+      <c r="C261" t="s">
+        <v>16</v>
+      </c>
+      <c r="D261" t="s">
+        <v>20</v>
+      </c>
+      <c r="E261" t="s">
+        <v>22</v>
+      </c>
+      <c r="F261">
+        <v>21983.00185848033</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>14</v>
+      </c>
+      <c r="C262" t="s">
+        <v>16</v>
+      </c>
+      <c r="D262" t="s">
+        <v>20</v>
+      </c>
+      <c r="E262" t="s">
+        <v>23</v>
+      </c>
+      <c r="F262">
+        <v>0.2860210500002724</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>14</v>
+      </c>
+      <c r="C263" t="s">
+        <v>17</v>
+      </c>
+      <c r="D263" t="s">
+        <v>18</v>
+      </c>
+      <c r="E263" t="s">
+        <v>21</v>
+      </c>
+      <c r="F263">
+        <v>2631.784082326646</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" t="s">
+        <v>17</v>
+      </c>
+      <c r="D264" t="s">
+        <v>18</v>
+      </c>
+      <c r="E264" t="s">
+        <v>22</v>
+      </c>
+      <c r="F264">
+        <v>71220.53656070793</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>14</v>
+      </c>
+      <c r="C265" t="s">
+        <v>17</v>
+      </c>
+      <c r="D265" t="s">
+        <v>18</v>
+      </c>
+      <c r="E265" t="s">
+        <v>23</v>
+      </c>
+      <c r="F265">
+        <v>0.06387012999766757</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>14</v>
+      </c>
+      <c r="C266" t="s">
+        <v>17</v>
+      </c>
+      <c r="D266" t="s">
+        <v>19</v>
+      </c>
+      <c r="E266" t="s">
+        <v>21</v>
+      </c>
+      <c r="F266">
+        <v>1621.122836480518</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>14</v>
+      </c>
+      <c r="C267" t="s">
+        <v>17</v>
+      </c>
+      <c r="D267" t="s">
+        <v>19</v>
+      </c>
+      <c r="E267" t="s">
+        <v>22</v>
+      </c>
+      <c r="F267">
+        <v>31718.40328849347</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>14</v>
+      </c>
+      <c r="C268" t="s">
+        <v>17</v>
+      </c>
+      <c r="D268" t="s">
+        <v>19</v>
+      </c>
+      <c r="E268" t="s">
+        <v>23</v>
+      </c>
+      <c r="F268">
+        <v>0.1078665500041119</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>14</v>
+      </c>
+      <c r="C269" t="s">
+        <v>17</v>
+      </c>
+      <c r="D269" t="s">
+        <v>20</v>
+      </c>
+      <c r="E269" t="s">
+        <v>21</v>
+      </c>
+      <c r="F269">
+        <v>2262.456051580558</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>14</v>
+      </c>
+      <c r="C270" t="s">
+        <v>17</v>
+      </c>
+      <c r="D270" t="s">
+        <v>20</v>
+      </c>
+      <c r="E270" t="s">
+        <v>22</v>
+      </c>
+      <c r="F270">
+        <v>20395.90655389011</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>14</v>
+      </c>
+      <c r="C271" t="s">
+        <v>17</v>
+      </c>
+      <c r="D271" t="s">
+        <v>20</v>
+      </c>
+      <c r="E271" t="s">
+        <v>23</v>
+      </c>
+      <c r="F271">
+        <v>0.197477790000268</v>
       </c>
     </row>
   </sheetData>
